--- a/data/covid_econonomic_factors.xlsx
+++ b/data/covid_econonomic_factors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemig\OneDrive\Desktop\Fall 2021\Applied Statistics for Engineers\Group project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemig\OneDrive\Desktop\Fall 2021\Applied Statistics for Engineers\Group project\covid-edu-econ\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C3B252-2261-48F6-9F55-BA06455E1F0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328E091E-C9E0-4D3C-A580-51E4426519CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="804" firstSheet="11" activeTab="15" xr2:uid="{42FE9BE4-A7FD-4283-B59B-25931E34F1A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="804" firstSheet="11" activeTab="16" xr2:uid="{42FE9BE4-A7FD-4283-B59B-25931E34F1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="gdp_growth_rate" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="coronavirus_vaccination_total" sheetId="10" r:id="rId14"/>
     <sheet name="corruption_rank" sheetId="11" r:id="rId15"/>
     <sheet name="population" sheetId="12" r:id="rId16"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId17"/>
+    <sheet name="gini_index" sheetId="13" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5381" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5560" uniqueCount="242">
   <si>
     <t>Country</t>
   </si>
@@ -746,6 +746,33 @@
   </si>
   <si>
     <t>million</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>DR Congo</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Bosnia And Herzegovina</t>
+  </si>
+  <si>
+    <t>Timor Leste</t>
+  </si>
+  <si>
+    <t>Falkland Islands</t>
   </si>
 </sst>
 </file>
@@ -23029,7 +23056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB82EB8-8B8E-466D-AE24-8E0EF4C02ECB}">
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E186"/>
     </sheetView>
   </sheetViews>
@@ -26392,13 +26419,1886 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E162492E-39AB-4981-BA82-E41A389E36D2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3">
+        <v>59.1</v>
+      </c>
+      <c r="C3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4">
+        <v>57.9</v>
+      </c>
+      <c r="C4">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5">
+        <v>57.1</v>
+      </c>
+      <c r="C5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6">
+        <v>56.3</v>
+      </c>
+      <c r="C6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>56.2</v>
+      </c>
+      <c r="C7">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8">
+        <v>54.6</v>
+      </c>
+      <c r="C8">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>53.4</v>
+      </c>
+      <c r="C10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>53.3</v>
+      </c>
+      <c r="C11">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>53.3</v>
+      </c>
+      <c r="C12">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>51.3</v>
+      </c>
+      <c r="C13">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>51.3</v>
+      </c>
+      <c r="C14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15">
+        <v>51.2</v>
+      </c>
+      <c r="C15">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16">
+        <v>50.7</v>
+      </c>
+      <c r="C16">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17">
+        <v>50.3</v>
+      </c>
+      <c r="C17">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18">
+        <v>49.8</v>
+      </c>
+      <c r="C18">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19">
+        <v>48.9</v>
+      </c>
+      <c r="C19">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20">
+        <v>48.3</v>
+      </c>
+      <c r="C20">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>48.2</v>
+      </c>
+      <c r="C21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22">
+        <v>48.2</v>
+      </c>
+      <c r="C22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>47.8</v>
+      </c>
+      <c r="C23">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>46.6</v>
+      </c>
+      <c r="C24">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25">
+        <v>46.2</v>
+      </c>
+      <c r="C25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26">
+        <v>45.7</v>
+      </c>
+      <c r="C26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>45.7</v>
+      </c>
+      <c r="C27">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28">
+        <v>45.5</v>
+      </c>
+      <c r="C28">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29">
+        <v>45.4</v>
+      </c>
+      <c r="C29">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>45.3</v>
+      </c>
+      <c r="C30">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <v>45.1</v>
+      </c>
+      <c r="C31">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32">
+        <v>44.9</v>
+      </c>
+      <c r="C32">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B33">
+        <v>44.8</v>
+      </c>
+      <c r="C33">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34">
+        <v>44.7</v>
+      </c>
+      <c r="C34">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>44.4</v>
+      </c>
+      <c r="C35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36">
+        <v>44.1</v>
+      </c>
+      <c r="C36">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37">
+        <v>43.7</v>
+      </c>
+      <c r="C37">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38">
+        <v>43.5</v>
+      </c>
+      <c r="C38">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>43.3</v>
+      </c>
+      <c r="C39">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40">
+        <v>43.1</v>
+      </c>
+      <c r="C40">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>42.9</v>
+      </c>
+      <c r="C41">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42">
+        <v>42.8</v>
+      </c>
+      <c r="C42">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43">
+        <v>42.6</v>
+      </c>
+      <c r="C43">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44">
+        <v>42.3</v>
+      </c>
+      <c r="C44">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45">
+        <v>42.1</v>
+      </c>
+      <c r="C45">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46">
+        <v>42</v>
+      </c>
+      <c r="C46">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47">
+        <v>41.9</v>
+      </c>
+      <c r="C47">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>41.9</v>
+      </c>
+      <c r="C48">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49">
+        <v>41.9</v>
+      </c>
+      <c r="C49">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>41.6</v>
+      </c>
+      <c r="C50">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51">
+        <v>41.6</v>
+      </c>
+      <c r="C51">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52">
+        <v>41.5</v>
+      </c>
+      <c r="C52">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53">
+        <v>41.5</v>
+      </c>
+      <c r="C53">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54">
+        <v>41.4</v>
+      </c>
+      <c r="C54">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55">
+        <v>41.3</v>
+      </c>
+      <c r="C55">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56">
+        <v>41.1</v>
+      </c>
+      <c r="C56">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57">
+        <v>41.1</v>
+      </c>
+      <c r="C57">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C58">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C59">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60">
+        <v>40.5</v>
+      </c>
+      <c r="C60">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>217</v>
+      </c>
+      <c r="B61">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C61">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C62">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63">
+        <v>40.1</v>
+      </c>
+      <c r="C63">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="C64">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65">
+        <v>39.5</v>
+      </c>
+      <c r="C65">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="C66">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>236</v>
+      </c>
+      <c r="B67">
+        <v>39.1</v>
+      </c>
+      <c r="C67">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68">
+        <v>39</v>
+      </c>
+      <c r="C68">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="C69">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="C70">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="C71">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72">
+        <v>38.6</v>
+      </c>
+      <c r="C72">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73">
+        <v>38.5</v>
+      </c>
+      <c r="C73">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74">
+        <v>38.5</v>
+      </c>
+      <c r="C74">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="C75">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76">
+        <v>38</v>
+      </c>
+      <c r="C76">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77">
+        <v>37.6</v>
+      </c>
+      <c r="C77">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78">
+        <v>37.6</v>
+      </c>
+      <c r="C78">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79">
+        <v>37.5</v>
+      </c>
+      <c r="C79">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80">
+        <v>37.4</v>
+      </c>
+      <c r="C80">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81">
+        <v>37.1</v>
+      </c>
+      <c r="C81">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>37</v>
+      </c>
+      <c r="C82">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C83">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>150</v>
+      </c>
+      <c r="B84">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C84">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="C85">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>205</v>
+      </c>
+      <c r="B86">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="C86">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C87">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88">
+        <v>35.9</v>
+      </c>
+      <c r="C88">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89">
+        <v>35.9</v>
+      </c>
+      <c r="C89">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90">
+        <v>35.9</v>
+      </c>
+      <c r="C90">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="C91">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C92">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>146</v>
+      </c>
+      <c r="B93">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C93">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>176</v>
+      </c>
+      <c r="B94">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C94">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>75</v>
+      </c>
+      <c r="B95">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C95">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>35.4</v>
+      </c>
+      <c r="C96">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C97">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C98">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C99">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100">
+        <v>35.1</v>
+      </c>
+      <c r="C100">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101">
+        <v>35.1</v>
+      </c>
+      <c r="C101">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102">
+        <v>35.1</v>
+      </c>
+      <c r="C102">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103">
+        <v>35</v>
+      </c>
+      <c r="C103">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104">
+        <v>34.9</v>
+      </c>
+      <c r="C104">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>237</v>
+      </c>
+      <c r="B105">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="C105">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>153</v>
+      </c>
+      <c r="B106">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C106">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107">
+        <v>34.4</v>
+      </c>
+      <c r="C107">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="C108">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C109">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>159</v>
+      </c>
+      <c r="B110">
+        <v>34</v>
+      </c>
+      <c r="C110">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>190</v>
+      </c>
+      <c r="B111">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C111">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>84</v>
+      </c>
+      <c r="B112">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C112">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C113">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114">
+        <v>33.5</v>
+      </c>
+      <c r="C114">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C115">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C116">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117">
+        <v>33.1</v>
+      </c>
+      <c r="C117">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>238</v>
+      </c>
+      <c r="B118">
+        <v>33</v>
+      </c>
+      <c r="C118">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119">
+        <v>33</v>
+      </c>
+      <c r="C119">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120">
+        <v>33</v>
+      </c>
+      <c r="C120">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>64</v>
+      </c>
+      <c r="B121">
+        <v>32.9</v>
+      </c>
+      <c r="C121">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>83</v>
+      </c>
+      <c r="B122">
+        <v>32.9</v>
+      </c>
+      <c r="C122">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>165</v>
+      </c>
+      <c r="B123">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="C123">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>116</v>
+      </c>
+      <c r="B124">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="C124">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C125">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C126">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>105</v>
+      </c>
+      <c r="B127">
+        <v>32.6</v>
+      </c>
+      <c r="C127">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>58</v>
+      </c>
+      <c r="B128">
+        <v>32.4</v>
+      </c>
+      <c r="C128">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129">
+        <v>32.4</v>
+      </c>
+      <c r="C129">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130">
+        <v>32.1</v>
+      </c>
+      <c r="C130">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>62</v>
+      </c>
+      <c r="B131">
+        <v>31.9</v>
+      </c>
+      <c r="C131">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>91</v>
+      </c>
+      <c r="B132">
+        <v>31.8</v>
+      </c>
+      <c r="C132">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>126</v>
+      </c>
+      <c r="B133">
+        <v>31.6</v>
+      </c>
+      <c r="C133">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>193</v>
+      </c>
+      <c r="B134">
+        <v>31.5</v>
+      </c>
+      <c r="C134">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>78</v>
+      </c>
+      <c r="B135">
+        <v>31.4</v>
+      </c>
+      <c r="C135">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>198</v>
+      </c>
+      <c r="B136">
+        <v>31.4</v>
+      </c>
+      <c r="C136">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>101</v>
+      </c>
+      <c r="B137">
+        <v>31.3</v>
+      </c>
+      <c r="C137">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138">
+        <v>30.8</v>
+      </c>
+      <c r="C138">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>114</v>
+      </c>
+      <c r="B139">
+        <v>30.7</v>
+      </c>
+      <c r="C139">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140">
+        <v>30.3</v>
+      </c>
+      <c r="C140">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>133</v>
+      </c>
+      <c r="B141">
+        <v>30.2</v>
+      </c>
+      <c r="C141">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>157</v>
+      </c>
+      <c r="B142">
+        <v>30</v>
+      </c>
+      <c r="C142">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143">
+        <v>29.9</v>
+      </c>
+      <c r="C143">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>41</v>
+      </c>
+      <c r="B144">
+        <v>29.7</v>
+      </c>
+      <c r="C144">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>203</v>
+      </c>
+      <c r="B145">
+        <v>29.7</v>
+      </c>
+      <c r="C145">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>73</v>
+      </c>
+      <c r="B146">
+        <v>29.6</v>
+      </c>
+      <c r="C146">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>77</v>
+      </c>
+      <c r="B147">
+        <v>29.5</v>
+      </c>
+      <c r="C147">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>103</v>
+      </c>
+      <c r="B148">
+        <v>28.7</v>
+      </c>
+      <c r="C148">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>240</v>
+      </c>
+      <c r="B149">
+        <v>28.7</v>
+      </c>
+      <c r="C149">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>45</v>
+      </c>
+      <c r="B150">
+        <v>28.2</v>
+      </c>
+      <c r="C150">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>117</v>
+      </c>
+      <c r="B151">
+        <v>28.1</v>
+      </c>
+      <c r="C151">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>85</v>
+      </c>
+      <c r="B152">
+        <v>27.8</v>
+      </c>
+      <c r="C152">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>124</v>
+      </c>
+      <c r="B153">
+        <v>27.6</v>
+      </c>
+      <c r="C153">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154">
+        <v>27.6</v>
+      </c>
+      <c r="C154">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>57</v>
+      </c>
+      <c r="B155">
+        <v>27.3</v>
+      </c>
+      <c r="C155">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156">
+        <v>27.2</v>
+      </c>
+      <c r="C156">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157">
+        <v>26.6</v>
+      </c>
+      <c r="C157">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158">
+        <v>26.6</v>
+      </c>
+      <c r="C158">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>74</v>
+      </c>
+      <c r="B159">
+        <v>26.1</v>
+      </c>
+      <c r="C159">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>170</v>
+      </c>
+      <c r="B160">
+        <v>26</v>
+      </c>
+      <c r="C160">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>108</v>
+      </c>
+      <c r="B161">
+        <v>25.7</v>
+      </c>
+      <c r="C161">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162">
+        <v>25.3</v>
+      </c>
+      <c r="C162">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>44</v>
+      </c>
+      <c r="B163">
+        <v>25</v>
+      </c>
+      <c r="C163">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>148</v>
+      </c>
+      <c r="B164">
+        <v>24.6</v>
+      </c>
+      <c r="C164">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
